--- a/GUI + Reviews/202509/Euronext World.xlsx
+++ b/GUI + Reviews/202509/Euronext World.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202509\202512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54828D30-711B-47D8-A561-25712930BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795458D6-26E3-4C43-80EC-39DFBD5ED5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E10BA7A9-24E3-4237-8D52-8140261A5BCC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9011" uniqueCount="4550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9011" uniqueCount="4551">
   <si>
     <t>Rank</t>
   </si>
@@ -13686,6 +13686,9 @@
   </si>
   <si>
     <t>CH0011075394</t>
+  </si>
+  <si>
+    <t>XNMS</t>
   </si>
 </sst>
 </file>
@@ -13956,20 +13959,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B33D973F-B2EB-40F5-A265-A0F6F093F3C6}" name="Universe" displayName="Universe" ref="A1:K1501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B33D973F-B2EB-40F5-A265-A0F6F093F3C6}" name="Universe" displayName="Universe" ref="A1:K1501" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K1501" xr:uid="{B33D973F-B2EB-40F5-A265-A0F6F093F3C6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{19A96CD9-CDA7-429D-9C55-3D8BAE27DC86}" name="Rank" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A012F409-F64B-4040-9CCD-9AE1F262FF22}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{13172232-3C07-4B83-A919-DBBC87BAE80D}" name="Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{14C3F5B0-F5B4-4A88-B0A1-23D97E9225B6}" name="ISIN" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A24ABF99-22A2-4AF1-90EF-5B052DAC5ACC}" name="MIC" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{F89E0E23-C03A-4D72-9C45-BB822E138E89}" name="NOSH" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{ED1D8C5B-EE23-4F92-A731-6CF400426949}" name="Price (EUR) " dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{CB6FEEF5-9E08-4773-AE6B-0F9E33A20F63}" name="Currency (Local)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{2548E441-6308-47E6-9070-9374D69CE07C}" name="Mcap in EUR" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{331076F5-6AE3-47FA-95AB-1F030FDDA661}" name="index" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{302504AB-F637-429C-936E-8728783FF079}" name="3 months ADTV" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{19A96CD9-CDA7-429D-9C55-3D8BAE27DC86}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A012F409-F64B-4040-9CCD-9AE1F262FF22}" name="Ticker" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{13172232-3C07-4B83-A919-DBBC87BAE80D}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{14C3F5B0-F5B4-4A88-B0A1-23D97E9225B6}" name="ISIN" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A24ABF99-22A2-4AF1-90EF-5B052DAC5ACC}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F89E0E23-C03A-4D72-9C45-BB822E138E89}" name="NOSH" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{ED1D8C5B-EE23-4F92-A731-6CF400426949}" name="Price (EUR) " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{CB6FEEF5-9E08-4773-AE6B-0F9E33A20F63}" name="Currency (Local)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{2548E441-6308-47E6-9070-9374D69CE07C}" name="Mcap in EUR" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{331076F5-6AE3-47FA-95AB-1F030FDDA661}" name="index" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{302504AB-F637-429C-936E-8728783FF079}" name="3 months ADTV" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14294,7 +14297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E66DDE-21E5-4AF4-A22B-932BC55AF6D8}">
   <dimension ref="A1:K1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1342" workbookViewId="0">
+      <selection activeCell="E1363" sqref="E1363"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44775,7 +44780,7 @@
         <v>2659</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>116</v>
+        <v>4550</v>
       </c>
       <c r="F871" s="1">
         <v>81714310</v>
@@ -61995,7 +62000,7 @@
         <v>4135</v>
       </c>
       <c r="E1363" s="1" t="s">
-        <v>116</v>
+        <v>4550</v>
       </c>
       <c r="F1363" s="1">
         <v>445666930</v>
